--- a/biology/Botanique/Avenella_flexuosa/Avenella_flexuosa.xlsx
+++ b/biology/Botanique/Avenella_flexuosa/Avenella_flexuosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deschampsia flexuosa
-Avenella flexuosa, en français Canche flexueuse, Canche des montagnes, Deschampsie flexueuse[2] ou Foin tortueux[3], est une espèce de plantes à fleurs de la famille des Poaceae et du genre Avenella.
+Avenella flexuosa, en français Canche flexueuse, Canche des montagnes, Deschampsie flexueuse ou Foin tortueux, est une espèce de plantes à fleurs de la famille des Poaceae et du genre Avenella.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Canche flexueuse est une plante herbacée à feuilles enroulées, raides et fines, vert foncé, mesurant 20 à 60 cm.
-Elle se reconnaît à sa panicule très ample et aérienne étalée, à rameaux flexueux. Cette inflorescence mesure 50 à 120 mm. Les arêtes de ses glumelles sont genouillées[4]. Les épillets sont brun clair ou violacés[5].
+Elle se reconnaît à sa panicule très ample et aérienne étalée, à rameaux flexueux. Cette inflorescence mesure 50 à 120 mm. Les arêtes de ses glumelles sont genouillées. Les épillets sont brun clair ou violacés.
 Elle se distingue de la Canche cespiteuse (Deschampsia cespitosa) par sa taille et sa vigueur moindres, ses feuilles étroites, ses tiges fines et rouges. Un peu plus hâtive, fleurissant de juin à août, elle donne un foin dur et de mauvaise qualité ; c'est une espèce peu productive.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Canche flexueuse est une petite plante des pelouses, landes et sous-bois dans la zone d'altitude allant de 300 à 1 800 m. Elle se rencontre plus particulièrement dans les hêtraies sur sol acide[6]. Elle est très vigoureuse sur les sols acides secs des sous-bois et des pelouses.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Canche flexueuse est une petite plante des pelouses, landes et sous-bois dans la zone d'altitude allant de 300 à 1 800 m. Elle se rencontre plus particulièrement dans les hêtraies sur sol acide. Elle est très vigoureuse sur les sols acides secs des sous-bois et des pelouses.
 Le catalogue des stations forestières des Vosges alsaciennes note des hêtraies-sapinières acidiphiles à Canche flexueuse associée ou non à des myrtilles.
 </t>
         </is>
@@ -577,10 +593,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a une aire de répartition cosmopolite[1]. Elle est présente sur tout le territoire français métropolitain actuel depuis le Paléolithique[7].
-Elle serait encore présente dans toute la France métropolitaine[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une aire de répartition cosmopolite. Elle est présente sur tout le territoire français métropolitain actuel depuis le Paléolithique.
+Elle serait encore présente dans toute la France métropolitaine.
 </t>
         </is>
       </c>
@@ -609,11 +627,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en premier par le naturaliste suédois Carl von Linné en 1753, qui la classe dans le genre Aira sous le basionyme Aira flexuosa. Elle est déplacée dans le genre Deschampsia par Carl Bernhard von Trinius en 1836. Solomon Thomas Nicolai Drejer la reclasse en 1838 dans le genre Avenella sous le nom correct Avenella flexuosa[1],[9].
-Synonymes
-Avenella flexuosa a pour synonymes selon l'INPN      (21 avril 2021)[9] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par le naturaliste suédois Carl von Linné en 1753, qui la classe dans le genre Aira sous le basionyme Aira flexuosa. Elle est déplacée dans le genre Deschampsia par Carl Bernhard von Trinius en 1836. Solomon Thomas Nicolai Drejer la reclasse en 1838 dans le genre Avenella sous le nom correct Avenella flexuosa,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Avenella_flexuosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avenella_flexuosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avenella flexuosa a pour synonymes selon l'INPN      (21 avril 2021) :
 Aira arenaria F.W.Schmidt, 1791
 Aira argentea Bellynck, 1855
 Aira collina (Dumort.) Foerster, 1878
@@ -663,8 +718,43 @@
 Lerchenfeldia flexuosa (L.) Schur, 1866
 Podionapus flexuosus (L.) Dulac, 1867
 Salmasia flexuosa (L.) Bubani, 1902
-Sous-espèces
-Selon Plants of the World online (POWO)                (21 avril 2021)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Avenella_flexuosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Avenella_flexuosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (21 avril 2021) :
 Avenella flexuosa subsp. afromontana (C.E.Hubb.) Veldkamp
 Avenella flexuosa subsp. corsica (Tausch) Holub
 Avenella flexuosa subsp. flexuosa
